--- a/references/final reference correction.xlsx
+++ b/references/final reference correction.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="192">
   <si>
     <t>Chapter 1: Synthesis &amp; Overview</t>
   </si>
@@ -474,6 +474,132 @@
   </si>
   <si>
     <t>change to 6.3.1 (###) in RMD file</t>
+  </si>
+  <si>
+    <t>Chapter 9: fish</t>
+  </si>
+  <si>
+    <t>Hallett et al., 2016</t>
+  </si>
+  <si>
+    <t>section 9.2</t>
+  </si>
+  <si>
+    <t>Hallett and Valesini, 2012</t>
+  </si>
+  <si>
+    <t>Sorcha suggested to change article</t>
+  </si>
+  <si>
+    <t>make change in RMD file to @hallett2012development</t>
+  </si>
+  <si>
+    <t>Chris S. Hallett et al., 2019a</t>
+  </si>
+  <si>
+    <t>inccorect author name</t>
+  </si>
+  <si>
+    <t>make change in bib file (in all_refs.bib), need to check outcome</t>
+  </si>
+  <si>
+    <t>Christopher S. Hallett et al., 2012</t>
+  </si>
+  <si>
+    <t>section 9.3.1</t>
+  </si>
+  <si>
+    <t>(gorley2008permanova?</t>
+  </si>
+  <si>
+    <t>inccorect link</t>
+  </si>
+  <si>
+    <t>make change in RMD file to @anderson2008permanova</t>
+  </si>
+  <si>
+    <t>supplementary materials</t>
+  </si>
+  <si>
+    <t>section 9.3-9.4</t>
+  </si>
+  <si>
+    <t>add links in RMD file</t>
+  </si>
+  <si>
+    <t>Ian C. Potter et al. (2016)</t>
+  </si>
+  <si>
+    <t>section 9.4.1</t>
+  </si>
+  <si>
+    <t>Loneragan et al., 1986</t>
+  </si>
+  <si>
+    <t>inccorect author name in reference list</t>
+  </si>
+  <si>
+    <t>Potter et al., 1983b</t>
+  </si>
+  <si>
+    <t>(valesini2019peel?)</t>
+  </si>
+  <si>
+    <t>make change in RMD file to @valesini2019peelharvey</t>
+  </si>
+  <si>
+    <t>section 9.4.4</t>
+  </si>
+  <si>
+    <t>Hallett et al., 2019a</t>
+  </si>
+  <si>
+    <t>section 9.4.5</t>
+  </si>
+  <si>
+    <t>Hallett (2018)</t>
+  </si>
+  <si>
+    <t>citation links in tables and figure captions are missing</t>
+  </si>
+  <si>
+    <t>not sure if this would bread the tables/figures so just leave it as it is</t>
+  </si>
+  <si>
+    <t>Meteorology, 2017</t>
+  </si>
+  <si>
+    <t>section 9.4.2</t>
+  </si>
+  <si>
+    <t>Chapter 10: economy</t>
+  </si>
+  <si>
+    <t>Plammer and Taylor, 2001</t>
+  </si>
+  <si>
+    <t>section 10.3.1</t>
+  </si>
+  <si>
+    <t>Plummer et al., 2014</t>
+  </si>
+  <si>
+    <t>Development, 2014</t>
+  </si>
+  <si>
+    <t>inccorect citation format</t>
+  </si>
+  <si>
+    <t>Supplementary Material</t>
+  </si>
+  <si>
+    <t>section 10.3.3</t>
+  </si>
+  <si>
+    <t>Chapter 11: tradeoff</t>
+  </si>
+  <si>
+    <t>to add links in ch11 RMD file</t>
   </si>
 </sst>
 </file>
@@ -870,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I97"/>
+  <dimension ref="B1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,7 +2147,9 @@
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="11"/>
@@ -2030,115 +2158,449 @@
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="1"/>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F84" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G84" s="5"/>
+    </row>
+    <row r="85" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="1"/>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F85" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G85" s="5"/>
+    </row>
+    <row r="86" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="11"/>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F86" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F87" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="11"/>
-      <c r="G88" s="1"/>
+      <c r="C88" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F88" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="G88" s="5"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="1"/>
+      <c r="C89" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F89" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G89" s="5"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="1"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F90" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G90" s="5"/>
+    </row>
+    <row r="91" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F91" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="1"/>
+      <c r="C93" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F93" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G93" s="5"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="1"/>
+      <c r="C94" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G94" s="5"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="1"/>
+      <c r="C95" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G95" s="5"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="1"/>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="1"/>
+      <c r="C97" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="1"/>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="F101" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G101" s="5"/>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E102" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F102" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" s="5"/>
+    </row>
+    <row r="103" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E103" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F103" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="1"/>
+      <c r="C104" t="s">
+        <v>188</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E104" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G104" s="5"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="1"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="1"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="1"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="1"/>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="1"/>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="11"/>
+      <c r="G110" s="1"/>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="1"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+      <c r="G112" s="1"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="1"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="1"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="1"/>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="1"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/references/final reference correction.xlsx
+++ b/references/final reference correction.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="194">
   <si>
     <t>Chapter 1: Synthesis &amp; Overview</t>
   </si>
@@ -600,6 +600,12 @@
   </si>
   <si>
     <t>to add links in ch11 RMD file</t>
+  </si>
+  <si>
+    <t>citation to old linkage reports</t>
+  </si>
+  <si>
+    <t>replaced with Peel book chapters</t>
   </si>
 </sst>
 </file>
@@ -998,8 +1004,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,7 +1390,7 @@
       <c r="F29" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
@@ -1400,7 +1406,7 @@
       <c r="F30" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G30" s="2"/>
+      <c r="G30" s="5"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
@@ -1482,7 +1488,7 @@
       <c r="F36" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G36" s="2"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
@@ -2504,15 +2510,19 @@
       <c r="F107" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="G107" s="2"/>
+      <c r="G107" s="5"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="C108" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="D108" s="1"/>
       <c r="E108" s="11"/>
-      <c r="F108" s="11"/>
-      <c r="G108" s="1"/>
+      <c r="F108" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G108" s="5"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
